--- a/trackcoder.xlsx
+++ b/trackcoder.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
   <si>
     <t>Date</t>
   </si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t>2024-11-17</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>6:23</t>
@@ -242,7 +245,7 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
@@ -251,8 +254,8 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -580,7 +583,7 @@
     <col min="10" max="10" style="7" width="11.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -612,7 +615,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -644,7 +647,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="4"/>
       <c r="B3" s="1" t="s">
         <v>14</v>
@@ -672,7 +675,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -704,7 +707,7 @@
         <v>66</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -736,7 +739,7 @@
         <v>67</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
@@ -768,7 +771,7 @@
         <v>68</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="4" t="s">
         <v>29</v>
       </c>
@@ -800,7 +803,7 @@
         <v>69</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
@@ -832,7 +835,7 @@
         <v>70</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="4" t="s">
         <v>36</v>
       </c>
@@ -864,7 +867,7 @@
         <v>71</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="4" t="s">
         <v>39</v>
       </c>
@@ -896,7 +899,7 @@
         <v>72</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="4" t="s">
         <v>41</v>
       </c>
@@ -912,30 +915,30 @@
       <c r="E11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="3">
         <v>2</v>
       </c>
-      <c r="G11" s="5">
-        <v>0</v>
-      </c>
-      <c r="H11" s="5">
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
         <v>132</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="3">
         <v>134</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="3">
         <v>73</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="3">
         <v>35</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -944,19 +947,19 @@
       <c r="E12" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="3">
         <v>1</v>
       </c>
-      <c r="G12" s="5">
-        <v>0</v>
-      </c>
-      <c r="H12" s="5">
-        <v>0</v>
-      </c>
-      <c r="I12" s="5">
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
         <v>1</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="3">
         <v>74</v>
       </c>
     </row>
@@ -967,7 +970,7 @@
       <c r="B13" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="3">
         <v>35</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -976,19 +979,19 @@
       <c r="E13" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="5">
-        <v>0</v>
-      </c>
-      <c r="G13" s="5">
-        <v>0</v>
-      </c>
-      <c r="H13" s="5">
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
         <v>59</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="3">
         <v>59</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="3">
         <v>75</v>
       </c>
     </row>
@@ -996,31 +999,31 @@
       <c r="A14" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="5">
+      <c r="B14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="3">
         <v>35</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="5">
+        <v>56</v>
+      </c>
+      <c r="F14" s="3">
         <v>2</v>
       </c>
-      <c r="G14" s="5">
-        <v>0</v>
-      </c>
-      <c r="H14" s="5">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>6</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="3">
         <v>8</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="3">
         <v>76</v>
       </c>
     </row>

--- a/trackcoder.xlsx
+++ b/trackcoder.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
   <si>
     <t>Date</t>
   </si>
@@ -58,7 +58,7 @@
     <t>1:55</t>
   </si>
   <si>
-    <t>428:46</t>
+    <t>427:46</t>
   </si>
   <si>
     <t>365:42</t>
@@ -163,28 +163,133 @@
     <t>2:11</t>
   </si>
   <si>
+    <t>2024-11-10</t>
+  </si>
+  <si>
+    <t>4:30</t>
+  </si>
+  <si>
+    <t>3:06</t>
+  </si>
+  <si>
+    <t>0:42</t>
+  </si>
+  <si>
+    <t>2024-11-12</t>
+  </si>
+  <si>
+    <t>9:00</t>
+  </si>
+  <si>
+    <t>6:29</t>
+  </si>
+  <si>
+    <t>3:07</t>
+  </si>
+  <si>
+    <t>2024-11-13</t>
+  </si>
+  <si>
+    <t>6:12</t>
+  </si>
+  <si>
+    <t>3:39</t>
+  </si>
+  <si>
+    <t>2024-11-14</t>
+  </si>
+  <si>
+    <t>10:00</t>
+  </si>
+  <si>
+    <t>8:31</t>
+  </si>
+  <si>
+    <t>4:20</t>
+  </si>
+  <si>
+    <t>2024-11-15</t>
+  </si>
+  <si>
+    <t>1:36</t>
+  </si>
+  <si>
     <t>2024-11-16</t>
   </si>
   <si>
-    <t>10:00</t>
-  </si>
-  <si>
-    <t>8:31</t>
-  </si>
-  <si>
     <t>5:22</t>
   </si>
   <si>
     <t>2024-11-17</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>6:23</t>
+    <t>7:00</t>
+  </si>
+  <si>
+    <t>6:24</t>
   </si>
   <si>
     <t>5:06</t>
+  </si>
+  <si>
+    <t>2024-11-18</t>
+  </si>
+  <si>
+    <t>4:48</t>
+  </si>
+  <si>
+    <t>3:48</t>
+  </si>
+  <si>
+    <t>2:14</t>
+  </si>
+  <si>
+    <t>2024-11-19</t>
+  </si>
+  <si>
+    <t>9:07</t>
+  </si>
+  <si>
+    <t>6:36</t>
+  </si>
+  <si>
+    <t>6:53</t>
+  </si>
+  <si>
+    <t>3:32</t>
+  </si>
+  <si>
+    <t>2024-11-20</t>
+  </si>
+  <si>
+    <t>10:24</t>
+  </si>
+  <si>
+    <t>9:24</t>
+  </si>
+  <si>
+    <t>6:00</t>
+  </si>
+  <si>
+    <t>2024-11-21</t>
+  </si>
+  <si>
+    <t>9:32</t>
+  </si>
+  <si>
+    <t>8:32</t>
+  </si>
+  <si>
+    <t>6:28</t>
+  </si>
+  <si>
+    <t>2024-11-22</t>
+  </si>
+  <si>
+    <t>7:07</t>
+  </si>
+  <si>
+    <t>5:41</t>
   </si>
 </sst>
 </file>
@@ -240,13 +345,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf xfId="0" numFmtId="20" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -254,10 +362,25 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="20" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="20" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="20" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -565,32 +688,32 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="9.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="7" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="7" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="7" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="7" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="10" width="15.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="12" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="10" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="10" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="13" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="13" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="13" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="13" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="13" width="11.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -599,19 +722,19 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -619,10 +742,10 @@
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="4">
         <v>31</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -631,47 +754,47 @@
       <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="4">
         <v>15</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="4">
         <v>29</v>
       </c>
-      <c r="H2" s="3">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3">
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
         <v>44</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="4">
         <v>65</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="4"/>
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="4"/>
       <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="4">
         <v>2990</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="4">
         <v>6964</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="4">
         <v>87</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="4">
         <v>9995</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="4">
         <v>65</v>
       </c>
     </row>
@@ -679,10 +802,10 @@
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="4">
         <v>31</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -691,19 +814,19 @@
       <c r="E4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="4">
         <v>6</v>
       </c>
-      <c r="G4" s="3">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
         <v>21</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="4">
         <v>27</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="4">
         <v>66</v>
       </c>
     </row>
@@ -711,10 +834,10 @@
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="4">
         <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -723,19 +846,19 @@
       <c r="E5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="4">
         <v>10</v>
       </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
         <v>61</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="4">
         <v>71</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="4">
         <v>67</v>
       </c>
     </row>
@@ -743,10 +866,10 @@
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="4">
         <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -755,276 +878,628 @@
       <c r="E6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="4">
         <v>19</v>
       </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3">
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
         <v>49</v>
       </c>
-      <c r="I6" s="3">
-        <v>0</v>
-      </c>
-      <c r="J6" s="3">
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
         <v>68</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="4">
         <v>32</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3">
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
         <v>69</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="4">
         <v>32</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="4">
         <v>3</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
         <v>62</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="4">
         <v>65</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="4">
         <v>70</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="4">
         <v>32</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
         <v>99</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="4">
         <v>99</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="4">
         <v>71</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="4">
         <v>33</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="4">
         <v>2</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
         <v>83</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="4">
         <v>85</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="4">
         <v>72</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="4">
         <v>33</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="4">
         <v>2</v>
       </c>
-      <c r="G11" s="3">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3">
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
         <v>132</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="4">
         <v>134</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="4">
         <v>73</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="4">
         <v>35</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3">
-        <v>1</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="F12" s="4">
+        <v>40</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>64</v>
+      </c>
+      <c r="I12" s="4">
+        <v>104</v>
+      </c>
+      <c r="J12" s="4">
         <v>74</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
-      <c r="A13" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="4">
         <v>35</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="3">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0</v>
-      </c>
-      <c r="H13" s="3">
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <v>50</v>
+      </c>
+      <c r="I13" s="4">
+        <v>50</v>
+      </c>
+      <c r="J13" s="4">
+        <v>75</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="4">
+        <v>34</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="4">
+        <v>47</v>
+      </c>
+      <c r="G14" s="4">
+        <v>61</v>
+      </c>
+      <c r="H14" s="4">
+        <v>70</v>
+      </c>
+      <c r="I14" s="4">
+        <v>178</v>
+      </c>
+      <c r="J14" s="4">
+        <v>76</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+      <c r="A15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="4">
+        <v>35</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="I13" s="3">
-        <v>59</v>
-      </c>
-      <c r="J13" s="3">
+      <c r="F15" s="4">
+        <v>39</v>
+      </c>
+      <c r="G15" s="4">
+        <v>142</v>
+      </c>
+      <c r="H15" s="4">
+        <v>73</v>
+      </c>
+      <c r="I15" s="4">
+        <v>254</v>
+      </c>
+      <c r="J15" s="4">
+        <v>77</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+      <c r="A16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="4">
+        <v>35</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="4">
+        <v>31</v>
+      </c>
+      <c r="G16" s="4">
+        <v>71</v>
+      </c>
+      <c r="H16" s="4">
+        <v>171</v>
+      </c>
+      <c r="I16" s="4">
+        <v>273</v>
+      </c>
+      <c r="J16" s="4">
+        <v>78</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+      <c r="A17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="4">
+        <v>35</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="4">
+        <v>2</v>
+      </c>
+      <c r="G17" s="4">
+        <v>3</v>
+      </c>
+      <c r="H17" s="4">
+        <v>79</v>
+      </c>
+      <c r="I17" s="4">
+        <v>84</v>
+      </c>
+      <c r="J17" s="4">
+        <v>79</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+      <c r="A18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="4">
+        <v>35</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="4">
+        <v>2</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4">
+        <v>203</v>
+      </c>
+      <c r="I18" s="4">
+        <v>205</v>
+      </c>
+      <c r="J18" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+      <c r="A19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="4">
+        <v>35</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="4">
+        <v>27</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4">
+        <v>257</v>
+      </c>
+      <c r="I19" s="4">
+        <v>284</v>
+      </c>
+      <c r="J19" s="4">
+        <v>81</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+      <c r="A20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="4">
+        <v>35</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18">
-      <c r="A14" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="3">
+      <c r="F20" s="4">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0</v>
+      </c>
+      <c r="H20" s="4">
+        <v>50</v>
+      </c>
+      <c r="I20" s="4">
+        <v>50</v>
+      </c>
+      <c r="J20" s="4">
+        <v>82</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+      <c r="A21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="2">
+        <v>25569.229462604166</v>
+      </c>
+      <c r="C21" s="4">
         <v>35</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="3">
-        <v>2</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>6</v>
-      </c>
-      <c r="I14" s="3">
-        <v>8</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="D21" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="4">
+        <v>19</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4">
+        <v>394</v>
+      </c>
+      <c r="I21" s="4">
+        <v>413</v>
+      </c>
+      <c r="J21" s="4">
+        <v>83</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+      <c r="A22" s="1" t="s">
         <v>76</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="4">
+        <v>35</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4">
+        <v>100</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0</v>
+      </c>
+      <c r="J22" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+      <c r="A23" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="4">
+        <v>35</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23" s="4">
+        <v>14</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4">
+        <v>330</v>
+      </c>
+      <c r="I23" s="4">
+        <v>344</v>
+      </c>
+      <c r="J23" s="4">
+        <v>85</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+      <c r="A24" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="7">
+        <v>35</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24" s="4">
+        <v>21</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4">
+        <v>393</v>
+      </c>
+      <c r="I24" s="4">
+        <v>414</v>
+      </c>
+      <c r="J24" s="4">
+        <v>86</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+      <c r="A25" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="9">
+        <v>35</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" s="7">
+        <v>31</v>
+      </c>
+      <c r="G25" s="7">
+        <v>0</v>
+      </c>
+      <c r="H25" s="7">
+        <v>299</v>
+      </c>
+      <c r="I25" s="7">
+        <v>330</v>
+      </c>
+      <c r="J25" s="7">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/trackcoder.xlsx
+++ b/trackcoder.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="95">
   <si>
     <t>Date</t>
   </si>
@@ -290,6 +290,15 @@
   </si>
   <si>
     <t>5:41</t>
+  </si>
+  <si>
+    <t>2024-11-23</t>
+  </si>
+  <si>
+    <t>10:22</t>
+  </si>
+  <si>
+    <t>9:22</t>
   </si>
 </sst>
 </file>
@@ -688,7 +697,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -706,7 +715,7 @@
     <col min="10" max="10" style="13" width="11.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -738,7 +747,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -770,7 +779,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -798,7 +807,7 @@
         <v>65</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -830,7 +839,7 @@
         <v>66</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -862,7 +871,7 @@
         <v>67</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
@@ -894,7 +903,7 @@
         <v>68</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
@@ -926,7 +935,7 @@
         <v>69</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="1" t="s">
         <v>33</v>
       </c>
@@ -958,7 +967,7 @@
         <v>70</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
@@ -990,7 +999,7 @@
         <v>71</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
@@ -1022,7 +1031,7 @@
         <v>72</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="1" t="s">
         <v>41</v>
       </c>
@@ -1054,7 +1063,7 @@
         <v>73</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="1" t="s">
         <v>45</v>
       </c>
@@ -1442,10 +1451,10 @@
       <c r="A24" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="4">
         <v>35</v>
       </c>
       <c r="D24" s="5" t="s">
@@ -1474,10 +1483,10 @@
       <c r="A25" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="7">
         <v>35</v>
       </c>
       <c r="D25" s="5" t="s">
@@ -1486,20 +1495,52 @@
       <c r="E25" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="4">
         <v>31</v>
       </c>
-      <c r="G25" s="7">
-        <v>0</v>
-      </c>
-      <c r="H25" s="7">
+      <c r="G25" s="4">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4">
         <v>299</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="4">
         <v>330</v>
       </c>
-      <c r="J25" s="7">
+      <c r="J25" s="4">
         <v>87</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18">
+      <c r="A26" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="9">
+        <v>35</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" s="7">
+        <v>10</v>
+      </c>
+      <c r="G26" s="7">
+        <v>0</v>
+      </c>
+      <c r="H26" s="7">
+        <v>472</v>
+      </c>
+      <c r="I26" s="7">
+        <v>482</v>
+      </c>
+      <c r="J26" s="7">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
